--- a/TestData/TestDataSheet.xlsx
+++ b/TestData/TestDataSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>UserId</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t>A_Condition</t>
   </si>
   <si>
     <t>E_Condition</t>
@@ -150,12 +147,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,10 +465,9 @@
     <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.54296875" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -483,13 +478,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -502,9 +494,8 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -517,9 +508,8 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -532,9 +522,8 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -547,9 +536,8 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -562,9 +550,8 @@
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -577,9 +564,8 @@
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -592,9 +578,8 @@
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -607,7 +592,6 @@
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
